--- a/medicine/Enfance/Amélie_Sarn/Amélie_Sarn.xlsx
+++ b/medicine/Enfance/Amélie_Sarn/Amélie_Sarn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am%C3%A9lie_Sarn</t>
+          <t>Amélie_Sarn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amélie Sarn, née en 1970, est une romancière française, scénariste de bandes dessinées et traductrice. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am%C3%A9lie_Sarn</t>
+          <t>Amélie_Sarn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir passé son enfance à la campagne et quelques années à l’université de Rennes, Sarn devient écrivain à temps plein.
-En avril 2002, elle publie chez Albin Michel son premier roman pour adultes, Elle ne pleure pas, elle chante. En 2004, elle adapte en livre pour les éditions Milan le premier dessin animé de Sylvain Chomet, Les Triplettes de Belleville, sorti un an plus tôt[1].
+En avril 2002, elle publie chez Albin Michel son premier roman pour adultes, Elle ne pleure pas, elle chante. En 2004, elle adapte en livre pour les éditions Milan le premier dessin animé de Sylvain Chomet, Les Triplettes de Belleville, sorti un an plus tôt.
 En 2006, elle succède avec Qu'as-tu fait, Mistouflet ? à Geneviève Huriet en tant qu’auteure de la série La Famille Passiflore, créée en 1987 chez Milan. L'Album photo des Passiflore est publié l'année suivante.
 Le travail de Sarn a été publié en France par les éditions Milan, Rageot, Albin Michel, Les Enfants Rouges et les éditions J'ai lu.
 Elle vit aujourd’hui[Quand ?] à Bordeaux où elle écrit de nombreux livres pour la jeunesse dont Coupable d'être innocent et Une vie de rêve pour Lola (éd. Rageot), Le pirate couve la grippe, Un fantôme très rigolo, La Nuit de la chauve-souris et Le Bûcher aux sorcières (éd. Milan).
 Sous le pseudo de Méli-Marlo, elle a coécrit avec Marc Cantin Le Cirque Patatrac et Un petit garçon trop pressé.
-Elle devient scénariste de bande dessinée en 2006 en cosignant, avec Éric Corbeyran, la série Nanami dessinée par Nauriel et éditée par Dargaud[2].
-Elle commence aussi pour les éditions Milan l'adaptation en romans de la série de bande dessinée Thorgal. Le premier tome, L'Enfant des étoiles, est publié en 2009, suivi en 2010 par Au-delà des ombres[3]. Le dessinateur de la série, Grzegorz Rosiński, a illustré les couvertures des romans[4],[5].
-En 2020, elle reçoit la Pépite de la Fiction juniors[6] du Salon du livre et de la presse jeunesse pour le premier tome de sa série de romans Carmin, le garçon au pied-sabot.
+Elle devient scénariste de bande dessinée en 2006 en cosignant, avec Éric Corbeyran, la série Nanami dessinée par Nauriel et éditée par Dargaud.
+Elle commence aussi pour les éditions Milan l'adaptation en romans de la série de bande dessinée Thorgal. Le premier tome, L'Enfant des étoiles, est publié en 2009, suivi en 2010 par Au-delà des ombres. Le dessinateur de la série, Grzegorz Rosiński, a illustré les couvertures des romans,.
+En 2020, elle reçoit la Pépite de la Fiction juniors du Salon du livre et de la presse jeunesse pour le premier tome de sa série de romans Carmin, le garçon au pied-sabot.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Am%C3%A9lie_Sarn</t>
+          <t>Amélie_Sarn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,24 +566,97 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Séries
-Resurrectio
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Resurrectio
 Resurrectio, Paris, Le Seuil jeunesse, 2014
 Trop humaine, Paris, Le Seuil, 2015
 Carmin
 Carmin, Le garçon au pied-sabot, Seuil jeunesse, 2020
-Carmin, La Terra Divalis, Seuil jeunesse, 2021
-Romans indépendants
-L’empereur qui refusait l’amour, ill. de Rozenn Brécard, Paris, Albin Michel jeunesse, 2002
+Carmin, La Terra Divalis, Seuil jeunesse, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amélie_Sarn</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Am%C3%A9lie_Sarn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L’empereur qui refusait l’amour, ill. de Rozenn Brécard, Paris, Albin Michel jeunesse, 2002
 OneShot aux éditions les enfants rouges, 2007
 GrooveHigh : coups de foudre et coups montés, ill. de Virgile Trouillot, Toulouse, Milan, 2007
 A mort le Minotaure, Paris, Belin, 2008
-Les Proies, Milan, Macadam, 2012
-Bandes dessinées
-Trop mortel, scénario d'Éric Corbeyran et Amélie Sarn, dessin de Chico Pacheco, couleur de Philippe Casadei, éditions Delcourt
+Les Proies, Milan, Macadam, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amélie_Sarn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Am%C3%A9lie_Sarn</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Trop mortel, scénario d'Éric Corbeyran et Amélie Sarn, dessin de Chico Pacheco, couleur de Philippe Casadei, éditions Delcourt
 Tome 1, 2007
 Tome 2, 2008
-Loup avec Marc Moreno au dessin, Editions Les Enfants Rouges (2009)[7]
+Loup avec Marc Moreno au dessin, Editions Les Enfants Rouges (2009)
 Nanami, scénario avec Éric Corbeyran (crédité pour les 3 premiers volumes), dessin de Nauriel, couleurs : Simon Champelovier (vol. 1 &amp; 2) et Elsa Brants (vol. 3, 4 &amp; 5), Dargaud, coll. Cosmo.
 Le Théâtre du vent, 2006  (ISBN 2-8712-9876-9)
 L'Inconnu, 2008  (ISBN 978-2-5050-0062-4)
@@ -582,40 +669,76 @@
 Icare, 2018
 Lumière noire, 2019
 Rose and Crow, dessin de Lise Garçon, éditions Delcourt
-Livre 1, 2021
-Traductions
-Le Clan des chiens : Sur la piste des hommes, Paris, Le Seuil jeunesse, 2013 [8],[9]</t>
+Livre 1, 2021</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Am%C3%A9lie_Sarn</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amélie_Sarn</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Am%C3%A9lie_Sarn</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Clan des chiens : Sur la piste des hommes, Paris, Le Seuil jeunesse, 2013 ,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amélie_Sarn</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Am%C3%A9lie_Sarn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle ne pleure pas, elle chante, bande dessinée (2004)[10],[11].
-Elle ne pleure pas, elle chante film sorti en 2011[12].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Elle ne pleure pas, elle chante, bande dessinée (2004),.
+Elle ne pleure pas, elle chante film sorti en 2011.</t>
         </is>
       </c>
     </row>
